--- a/ValueSet-RS-Pupils-VS.xlsx
+++ b/ValueSet-RS-Pupils-VS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T16:04:50+00:00</t>
+    <t>2025-10-09T17:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-RS-Pupils-VS.xlsx
+++ b/ValueSet-RS-Pupils-VS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T17:33:43+00:00</t>
+    <t>2025-10-09T18:52:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
